--- a/coach.xlsx
+++ b/coach.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_tg</t>
   </si>
   <si>
     <t xml:space="preserve">fio</t>
@@ -310,20 +307,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14:D16"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,25 +338,21 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="2" t="n">
         <v>79156667788</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="E2" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -368,17 +360,16 @@
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="2" t="n">
         <v>79537159437</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="E3" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -386,17 +377,16 @@
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="D4" s="2" t="n">
         <v>79158887766</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="E4" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -404,17 +394,16 @@
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="D5" s="2" t="n">
         <v>79107551029</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="E5" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -422,17 +411,16 @@
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="2" t="n">
         <v>79156721778</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="E6" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -440,17 +428,16 @@
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="2" t="n">
         <v>79606676015</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="E7" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -458,17 +445,16 @@
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" s="2" t="n">
         <v>79107546820</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="E8" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -476,17 +462,16 @@
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="D9" s="2" t="n">
         <v>79156767674</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="E9" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -494,17 +479,16 @@
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="D10" s="2" t="n">
         <v>79066592793</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="E10" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -512,17 +496,16 @@
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="D11" s="2" t="n">
         <v>79931850085</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="E11" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -530,17 +513,16 @@
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="D12" s="2" t="n">
         <v>79622375363</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="E12" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -548,17 +530,16 @@
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3" t="n">
+      <c r="E13" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -566,17 +547,16 @@
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -584,17 +564,16 @@
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>123</v>
       </c>
     </row>
@@ -602,17 +581,16 @@
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>123</v>
       </c>
     </row>
